--- a/rsc/LR.xlsx
+++ b/rsc/LR.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan\Documents\GitHub\GramaticaU3\rsc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE8154F-5939-4F88-87C0-CD7A2E24BE12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7890" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -168,14 +173,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -189,358 +188,16 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -548,241 +205,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -790,77 +215,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -984,7 +365,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1008,9 +389,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1034,7 +415,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1087,7 +468,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1112,95 +493,115 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:N21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD19"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1213,7 +614,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1230,10 +631,10 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1253,7 +654,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1273,7 +674,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1290,10 +691,10 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1313,7 +714,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1330,10 +731,10 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1350,10 +751,10 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1373,7 +774,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1393,7 +794,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1410,10 +811,10 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1433,7 +834,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1453,7 +854,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1470,10 +871,10 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1493,7 +894,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1508,51 +909,29 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-    </row>
-    <row r="21" spans="6:6">
-      <c r="F21" s="5"/>
+    <row r="20" spans="1:14">
+      <c r="F20" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A15" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="22" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22">
+    <row r="1" spans="1:22">
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1617,7 +996,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1643,7 +1022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <f t="shared" ref="A3:A33" si="0">A2+1</f>
         <v>1</v>
@@ -1652,7 +1031,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1661,7 +1040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1670,7 +1049,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1679,7 +1058,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1688,7 +1067,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1697,7 +1076,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:22">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1706,7 +1085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1742,7 +1121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:22">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1751,7 +1130,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:22">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1760,7 +1139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:22">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1787,7 +1166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:22">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1802,7 +1181,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:22">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1826,7 +1205,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:22">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1871,7 +1250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:22">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1895,7 +1274,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:22">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1910,7 +1289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:22">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1919,7 +1298,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:22">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1994,7 +1373,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:22">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2009,7 +1388,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:22">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2018,7 +1397,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:22">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2042,7 +1421,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:22">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2066,7 +1445,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:22">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2090,7 +1469,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:22">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2138,14 +1517,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>